--- a/Benchmarks/Water Chemistry/Conductivity/Conductivity matrix predictor decisions.xlsx
+++ b/Benchmarks/Water Chemistry/Conductivity/Conductivity matrix predictor decisions.xlsx
@@ -3023,7 +3023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
